--- a/fluxo_financeiro_abril2025_com_grafico.xlsx
+++ b/fluxo_financeiro_abril2025_com_grafico.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5592E20B-9C1A-46AC-B10E-BF9B5024D73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Data Formatada</t>
   </si>
@@ -41,13 +47,91 @@
   </si>
   <si>
     <t>05/04/2025</t>
+  </si>
+  <si>
+    <t>06/04/2025</t>
+  </si>
+  <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>12/04/2025</t>
+  </si>
+  <si>
+    <t>13/04/2025</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>18/04/2025</t>
+  </si>
+  <si>
+    <t>19/04/2025</t>
+  </si>
+  <si>
+    <t>20/04/2025</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>26/04/2025</t>
+  </si>
+  <si>
+    <t>27/04/2025</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +141,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,27 +187,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +259,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +293,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +328,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,95 +504,451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>15000</v>
-      </c>
-      <c r="C2">
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" s="3">
+        <v>105880.17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>75190.720000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>30689.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>20000</v>
-      </c>
-      <c r="C3">
-        <v>8000</v>
-      </c>
-      <c r="D3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="C3" s="3">
+        <v>57608.21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-57608.12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>18000</v>
-      </c>
-      <c r="C4">
-        <v>12000</v>
-      </c>
-      <c r="D4">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-535.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>22000</v>
-      </c>
-      <c r="C5">
-        <v>11000</v>
-      </c>
-      <c r="D5">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>23739.93</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-23739.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>17000</v>
-      </c>
-      <c r="C6">
-        <v>9000</v>
-      </c>
-      <c r="D6">
-        <v>8000</v>
+      <c r="B6" s="3">
+        <v>57158.65</v>
+      </c>
+      <c r="C6" s="3">
+        <v>272888.65000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-215730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>610.33000000000004</v>
+      </c>
+      <c r="C7" s="3">
+        <v>210637.76</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-210027.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>57072.13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>147296.15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-90224.01999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
+        <v>106484.79</v>
+      </c>
+      <c r="C9" s="3">
+        <v>141497.1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-35012.310000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3">
+        <v>228397.61</v>
+      </c>
+      <c r="C10" s="3">
+        <v>131410.35999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <v>96987.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3">
+        <v>243453.21</v>
+      </c>
+      <c r="C11" s="3">
+        <v>225973.31</v>
+      </c>
+      <c r="D11" s="3">
+        <v>17479.899999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3">
+        <v>120223.51</v>
+      </c>
+      <c r="C12" s="3">
+        <v>223844.61</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-103621.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>253995.56</v>
+      </c>
+      <c r="C13" s="3">
+        <v>179110.31</v>
+      </c>
+      <c r="D13" s="3">
+        <v>74885.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3">
+        <v>193454.52</v>
+      </c>
+      <c r="C14" s="3">
+        <v>129646.45</v>
+      </c>
+      <c r="D14" s="3">
+        <v>63808.069999999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>145847.89000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>359702.14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-213854.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>96676.09</v>
+      </c>
+      <c r="C16" s="3">
+        <v>36.56</v>
+      </c>
+      <c r="D16" s="3">
+        <v>96639.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44729.3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-44729.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>105122.73</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-105122.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6851.23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-6851.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>42890.19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-42890.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>78415.94</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-78415.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>28994.720000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-28994.720000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>21130.11</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-21130.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5848.74</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-5848.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>56594.400000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-56594.400000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>55047.53</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-55047.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>97738.52</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-97738.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>16691.490000000002</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-16691.490000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>215770.4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-215770.4</v>
       </c>
     </row>
   </sheetData>
